--- a/medicine/Enfance/Stéphane_Girel/Stéphane_Girel.xlsx
+++ b/medicine/Enfance/Stéphane_Girel/Stéphane_Girel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>St%C3%A9phane_Girel</t>
+          <t>Stéphane_Girel</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Stéphane Girel est un illustrateur français né le 23 mars 1970 à Lyon.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>St%C3%A9phane_Girel</t>
+          <t>Stéphane_Girel</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Stéphane Girel naît le 23 mars 1970 à Lyon[1].
-Il a suivi des études d'illustration à Lyon[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Stéphane Girel naît le 23 mars 1970 à Lyon.
+Il a suivi des études d'illustration à Lyon.
 Il a illustré de nombreux albums ou romans de différents auteurs chez des éditeurs français (Éditions du Rouergue, Casterman, Flammarion, etc.) et internationaux (Pastel, coréens : Yeowon Média, Kunna Publishing, Koréa Schweitzer, Glendoman). Il est l'auteur et illustrateur de quelques albums.
-Stéphane Girel a vécu en Savoie[2] avant de s'installer à Valence dans la Drôme.
-Il est enseignant à l'Enaai[1].
-Son travail graphique se caractérise par une grande diversité dans les techniques employées[2] .
+Stéphane Girel a vécu en Savoie avant de s'installer à Valence dans la Drôme.
+Il est enseignant à l'Enaai.
+Son travail graphique se caractérise par une grande diversité dans les techniques employées .
 </t>
         </is>
       </c>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>St%C3%A9phane_Girel</t>
+          <t>Stéphane_Girel</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,8 +563,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Albums
-Prunelle de Rascal, Pastel-L'École des loisirs, 1998
+          <t>Albums</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Prunelle de Rascal, Pastel-L'École des loisirs, 1998
 La princesse de Neige de Pascal Nottet, Pastel-L'École des loisirs, 1997
 La jeune fille plus sage que le juge de Mariana Cojan Negulesco, Albin Michel jeunesse, coll. « Contes d'hier et d'aujourd'hui », 1997
 La route du vent de Rascal, Pastel-L'École des loisirs, 1997  (ISBN 9782211043588)
@@ -610,12 +629,80 @@
 Les symphonies subaquatiques, un conte musical au cœur des océans de Valérie Bour, livre-CD, Editions des Braques, 2015  (ISBN 9782918911562)
 Nuages-Clouds de Hélène Kérilis, Léon Arts and stories, 2015  (ISBN 9791092232226)
 Je serai cet humain qui aime et qui navigue, de Franck Prévot, HongFei Cultures, 2016  (ISBN 9782355581113)
-Mon toi, HongFei Cultures, 2018  (ISBN 9782355581427)
-Bandes dessinées
-Vie privée (dessin), avec Céfé (scénario), Éditions Paquet, coll. « Carte de Venise », 1998[3].
-La Promise (dessin), avec Myriam Tonelotto, Paquet, coll. « Blandice », 2009.
-Romans
-Panette et Panou, de Jean-Marc Sajous, Scandéditions-La Farandole, coll. « Farandole en poche », 1993 ( (ISBN 9782209068432))
+Mon toi, HongFei Cultures, 2018  (ISBN 9782355581427)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Stéphane_Girel</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/St%C3%A9phane_Girel</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Bandes dessinées</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Vie privée (dessin), avec Céfé (scénario), Éditions Paquet, coll. « Carte de Venise », 1998.
+La Promise (dessin), avec Myriam Tonelotto, Paquet, coll. « Blandice », 2009.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Stéphane_Girel</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/St%C3%A9phane_Girel</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Panette et Panou, de Jean-Marc Sajous, Scandéditions-La Farandole, coll. « Farandole en poche », 1993 ( (ISBN 9782209068432))
 Mon père est un rocker, de Jacques Cassabois, Scandéditions-La Farandole, coll. « Farandole en poche », 1993 ( (ISBN 9782209067725))
 La chanson du chasseur de chats, de Jack Chaboud, Epigones, coll. « Myriades », 1995 (( (ISBN 9782736646066))
 La presqu'île de Saint-Tropez, carnet de croquis, Gallimard,1996  (ISBN 9782070595549)
